--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220516_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220516_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="257">
   <si>
     <t>사이트</t>
   </si>
@@ -770,6 +770,9 @@
   </si>
   <si>
     <t>FNC</t>
+  </si>
+  <si>
+    <t>ARCHIVE ACHIM</t>
   </si>
   <si>
     <t>마크툽컴퍼니</t>
@@ -3212,6 +3215,12 @@
       <c r="F80" t="s">
         <v>206</v>
       </c>
+      <c r="G80" t="s">
+        <v>252</v>
+      </c>
+      <c r="H80" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
@@ -3311,7 +3320,7 @@
         <v>210</v>
       </c>
       <c r="G84" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H84" t="s">
         <v>232</v>
@@ -3363,7 +3372,7 @@
         <v>212</v>
       </c>
       <c r="G86" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H86" t="s">
         <v>232</v>
@@ -3467,7 +3476,7 @@
         <v>214</v>
       </c>
       <c r="G90" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H90" t="s">
         <v>232</v>
@@ -3493,7 +3502,7 @@
         <v>215</v>
       </c>
       <c r="G91" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H91" t="s">
         <v>232</v>
@@ -3519,7 +3528,7 @@
         <v>216</v>
       </c>
       <c r="G92" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H92" t="s">
         <v>232</v>
@@ -3597,7 +3606,7 @@
         <v>218</v>
       </c>
       <c r="G95" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H95" t="s">
         <v>232</v>
@@ -3623,7 +3632,7 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H96" t="s">
         <v>232</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220516_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220516_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="257">
   <si>
     <t>사이트</t>
   </si>
@@ -2051,6 +2051,12 @@
       <c r="F35" t="s">
         <v>180</v>
       </c>
+      <c r="G35" t="s">
+        <v>232</v>
+      </c>
+      <c r="H35" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220516_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220516_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
   <si>
     <t>사이트</t>
   </si>
@@ -725,9 +725,6 @@
   </si>
   <si>
     <t>SOURCE MUSIC</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>SSK</t>
@@ -2078,7 +2075,7 @@
         <v>181</v>
       </c>
       <c r="G36" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H36" t="s">
         <v>232</v>
@@ -2156,7 +2153,7 @@
         <v>182</v>
       </c>
       <c r="G39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H39" t="s">
         <v>232</v>
@@ -2208,7 +2205,7 @@
         <v>183</v>
       </c>
       <c r="G41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H41" t="s">
         <v>232</v>
@@ -2260,7 +2257,7 @@
         <v>184</v>
       </c>
       <c r="G43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H43" t="s">
         <v>232</v>
@@ -2286,7 +2283,7 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H44" t="s">
         <v>232</v>
@@ -2338,7 +2335,7 @@
         <v>185</v>
       </c>
       <c r="G46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H46" t="s">
         <v>232</v>
@@ -2364,7 +2361,7 @@
         <v>186</v>
       </c>
       <c r="G47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H47" t="s">
         <v>232</v>
@@ -2416,7 +2413,7 @@
         <v>57</v>
       </c>
       <c r="G49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H49" t="s">
         <v>232</v>
@@ -2494,7 +2491,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H52" t="s">
         <v>232</v>
@@ -2572,7 +2569,7 @@
         <v>189</v>
       </c>
       <c r="G55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H55" t="s">
         <v>232</v>
@@ -2598,7 +2595,7 @@
         <v>64</v>
       </c>
       <c r="G56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H56" t="s">
         <v>232</v>
@@ -2624,7 +2621,7 @@
         <v>185</v>
       </c>
       <c r="G57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H57" t="s">
         <v>232</v>
@@ -2702,10 +2699,10 @@
         <v>191</v>
       </c>
       <c r="G60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2754,7 +2751,7 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H62" t="s">
         <v>232</v>
@@ -2780,7 +2777,7 @@
         <v>193</v>
       </c>
       <c r="G63" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H63" t="s">
         <v>232</v>
@@ -2806,10 +2803,10 @@
         <v>194</v>
       </c>
       <c r="G64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2832,10 +2829,10 @@
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2884,7 +2881,7 @@
         <v>196</v>
       </c>
       <c r="G67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H67" t="s">
         <v>232</v>
@@ -3014,7 +3011,7 @@
         <v>201</v>
       </c>
       <c r="G72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H72" t="s">
         <v>232</v>
@@ -3040,7 +3037,7 @@
         <v>202</v>
       </c>
       <c r="G73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H73" t="s">
         <v>232</v>
@@ -3066,7 +3063,7 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H74" t="s">
         <v>232</v>
@@ -3144,7 +3141,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H77" t="s">
         <v>232</v>
@@ -3170,7 +3167,7 @@
         <v>204</v>
       </c>
       <c r="G78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H78" t="s">
         <v>232</v>
@@ -3222,7 +3219,7 @@
         <v>206</v>
       </c>
       <c r="G80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H80" t="s">
         <v>232</v>
@@ -3248,7 +3245,7 @@
         <v>207</v>
       </c>
       <c r="G81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H81" t="s">
         <v>232</v>
@@ -3300,7 +3297,7 @@
         <v>209</v>
       </c>
       <c r="G83" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H83" t="s">
         <v>232</v>
@@ -3326,7 +3323,7 @@
         <v>210</v>
       </c>
       <c r="G84" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H84" t="s">
         <v>232</v>
@@ -3352,7 +3349,7 @@
         <v>211</v>
       </c>
       <c r="G85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H85" t="s">
         <v>232</v>
@@ -3378,7 +3375,7 @@
         <v>212</v>
       </c>
       <c r="G86" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H86" t="s">
         <v>232</v>
@@ -3456,10 +3453,10 @@
         <v>213</v>
       </c>
       <c r="G89" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H89" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3482,7 +3479,7 @@
         <v>214</v>
       </c>
       <c r="G90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H90" t="s">
         <v>232</v>
@@ -3508,7 +3505,7 @@
         <v>215</v>
       </c>
       <c r="G91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H91" t="s">
         <v>232</v>
@@ -3534,7 +3531,7 @@
         <v>216</v>
       </c>
       <c r="G92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H92" t="s">
         <v>232</v>
@@ -3612,7 +3609,7 @@
         <v>218</v>
       </c>
       <c r="G95" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H95" t="s">
         <v>232</v>
@@ -3638,7 +3635,7 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H96" t="s">
         <v>232</v>
@@ -3768,7 +3765,7 @@
         <v>187</v>
       </c>
       <c r="G101" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H101" t="s">
         <v>232</v>
